--- a/biology/Zoologie/Dromaeosaurinae/Dromaeosaurinae.xlsx
+++ b/biology/Zoologie/Dromaeosaurinae/Dromaeosaurinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">{{&lt;sous-titre/taxon|nv1=Dromaeosaurinés}}
 Les Dromaeosaurinae (Dromaeosaurinés en français) sont une sous-famille de dinosaures de la famille des Dromaeosauridae (clade des Eudromaeosauria).
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-famille a été nommée en 1922 par les paléontologues William Diller Matthew et Barnum Brown, pour y classer le genre Dromaeosaurus. Toutefois, Matthew et Brown ont à l'époque classé de manière erronée les Dromaeosaurinae dans la famille des Deinodontidae[1], reconnue comme synonyme des Tyrannosauridae.
-Une analyse phylogénique publiée en 2015 par Robert DePalma (d) et ses collègues lors de la description de Dakotaraptor, l'un des genres classés dans cette sous-famille, a conduit au cladogramme suivant[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille a été nommée en 1922 par les paléontologues William Diller Matthew et Barnum Brown, pour y classer le genre Dromaeosaurus. Toutefois, Matthew et Brown ont à l'époque classé de manière erronée les Dromaeosaurinae dans la famille des Deinodontidae, reconnue comme synonyme des Tyrannosauridae.
+Une analyse phylogénique publiée en 2015 par Robert DePalma (d) et ses collègues lors de la description de Dakotaraptor, l'un des genres classés dans cette sous-famille, a conduit au cladogramme suivant :
 </t>
         </is>
       </c>
@@ -544,15 +558,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (28 janvier 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (28 janvier 2021) :
 † genre Achillobator Perle, Norell &amp; Clark, 1999
 † genre Dromaeosauroides Christiansen &amp; Bonde, 2003
 † genre Dromaeosaurus Matthew &amp; Brown, 1922
 † genre Utahraptor Kirkland, Gaston &amp; Burge, 1993
 † genre Yurgovuchia Senter, Kirkland, DeBlieux, Madsen &amp; Toth, 2012
-Selon Paleobiology Database                   (28 janvier 2021)[4] :
+Selon Paleobiology Database                   (28 janvier 2021) :
 † genre Boreonykus Bell &amp; Currie, 2016
 † genre Dakotaraptor DePalma et al., 2015
 † genre Dromaeosaurus Matthew &amp; Brown, 1922
